--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34FA345-D8BA-4D2E-8842-469C1ED744B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91A224-40CF-4CA8-BCC3-959AA541776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_study" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Growth" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="221">
   <si>
     <t>STUDY</t>
   </si>
@@ -393,12 +393,6 @@
     <t>hepes buffered minimal medium</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>Term Source REF (DPBO:0000064)</t>
   </si>
   <si>
@@ -676,6 +670,15 @@
   </si>
   <si>
     <t>Co2</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>CC3</t>
   </si>
 </sst>
 </file>
@@ -1540,14 +1543,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1555,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1571,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1579,12 +1582,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1592,97 +1595,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1693,7 +1696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1704,7 +1707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1770,87 +1773,87 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -1858,7 +1861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -1866,12 +1869,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -1879,7 +1882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -1903,7 +1906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -1911,17 +1914,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -1936,136 +1939,136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDAA727-F6C1-443E-B31C-E04844B181CE}">
   <dimension ref="A1:DQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DQ7" sqref="DQ7"/>
+    <sheetView tabSelected="1" topLeftCell="DE1" workbookViewId="0">
+      <selection activeCell="DQ4" sqref="DQ4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.1796875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="27" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.26953125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="38.453125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.26953125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.453125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.26953125" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="38.453125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="31" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.28515625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="38.42578125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.1796875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.26953125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="38.453125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="33" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="40" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="33" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="40" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="33" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="40" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="36.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="27.42578125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="31.42578125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="38.5703125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="27.453125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="31.453125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="38.54296875" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="34.7265625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="33" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="40" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.26953125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="40" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.28515625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.42578125" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.26953125" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="37.453125" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="39.7265625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="39.7265625" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="33" hidden="1" customWidth="1"/>
     <col min="61" max="61" width="40" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="33.81640625" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="33" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="40" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.1796875" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="39.7265625" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.54296875" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="33" hidden="1" customWidth="1"/>
     <col min="72" max="72" width="40" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="33" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="40" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.7265625" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="33" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="40" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="33" hidden="1" customWidth="1"/>
     <col min="81" max="81" width="40" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="39.7109375" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="39.7265625" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="39.7265625" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="39.7265625" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="32.7265625" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="39.7265625" hidden="1" customWidth="1"/>
     <col min="94" max="94" width="29" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="33" hidden="1" customWidth="1"/>
     <col min="96" max="96" width="40" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="36.140625" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="43.140625" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="36.140625" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="43.140625" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="36.1796875" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="43.1796875" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="36.1796875" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="43.1796875" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="20.81640625" hidden="1" customWidth="1"/>
     <col min="105" max="105" width="28" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="38.26953125" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="33" hidden="1" customWidth="1"/>
     <col min="108" max="108" width="40" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="43.1796875" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="33" hidden="1" customWidth="1"/>
     <col min="111" max="111" width="40" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="28.453125" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="33" hidden="1" customWidth="1"/>
     <col min="114" max="114" width="40" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="29.85546875" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="29.81640625" hidden="1" customWidth="1"/>
     <col min="117" max="117" width="37" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="29.85546875" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="29.81640625" hidden="1" customWidth="1"/>
     <col min="120" max="120" width="37" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2073,364 +2076,364 @@
         <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
         <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
         <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K1" t="s">
         <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N1" t="s">
         <v>85</v>
       </c>
       <c r="O1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q1" t="s">
         <v>86</v>
       </c>
       <c r="R1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="S1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="T1" t="s">
         <v>87</v>
       </c>
       <c r="U1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="W1" t="s">
         <v>88</v>
       </c>
       <c r="X1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Y1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="Z1" t="s">
         <v>89</v>
       </c>
       <c r="AA1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AC1" t="s">
         <v>90</v>
       </c>
       <c r="AD1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AE1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF1" t="s">
         <v>91</v>
       </c>
       <c r="AG1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AH1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI1" t="s">
         <v>92</v>
       </c>
       <c r="AJ1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AK1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL1" t="s">
         <v>93</v>
       </c>
       <c r="AM1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AN1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AO1" t="s">
         <v>94</v>
       </c>
       <c r="AP1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AQ1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AR1" t="s">
         <v>95</v>
       </c>
       <c r="AS1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AT1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AU1" t="s">
         <v>96</v>
       </c>
       <c r="AV1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AW1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AX1" t="s">
         <v>97</v>
       </c>
       <c r="AY1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AZ1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BA1" t="s">
         <v>98</v>
       </c>
       <c r="BB1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="BC1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BD1" t="s">
         <v>99</v>
       </c>
       <c r="BE1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BF1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BG1" t="s">
         <v>100</v>
       </c>
       <c r="BH1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BI1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="BJ1" t="s">
         <v>101</v>
       </c>
       <c r="BK1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BL1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BM1" t="s">
         <v>102</v>
       </c>
       <c r="BN1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BP1" t="s">
         <v>169</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>171</v>
       </c>
       <c r="BQ1" t="s">
         <v>103</v>
       </c>
       <c r="BR1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BT1" t="s">
         <v>172</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>174</v>
       </c>
       <c r="BU1" t="s">
         <v>104</v>
       </c>
       <c r="BV1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BW1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BX1" t="s">
         <v>105</v>
       </c>
       <c r="BY1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="BZ1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="CA1" t="s">
         <v>106</v>
       </c>
       <c r="CB1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CC1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="CD1" t="s">
         <v>107</v>
       </c>
       <c r="CE1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="CF1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="CG1" t="s">
         <v>108</v>
       </c>
       <c r="CH1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="CI1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="CJ1" t="s">
         <v>109</v>
       </c>
       <c r="CK1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="CL1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="CM1" t="s">
         <v>110</v>
       </c>
       <c r="CN1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="CO1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="CP1" t="s">
         <v>111</v>
       </c>
       <c r="CQ1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="CR1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="CS1" t="s">
         <v>112</v>
       </c>
       <c r="CT1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="CU1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="CV1" t="s">
         <v>113</v>
       </c>
       <c r="CW1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="CX1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="CY1" t="s">
         <v>114</v>
       </c>
       <c r="CZ1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="DA1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="DB1" t="s">
         <v>115</v>
       </c>
       <c r="DC1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="DD1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="DE1" t="s">
         <v>116</v>
       </c>
       <c r="DF1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="DG1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="DH1" t="s">
         <v>117</v>
       </c>
       <c r="DI1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="DJ1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="DK1" t="s">
         <v>118</v>
       </c>
       <c r="DL1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="DM1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="DN1" t="s">
         <v>119</v>
       </c>
       <c r="DO1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="DP1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="DQ1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -2441,81 +2444,81 @@
         <v>122</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Z2" t="s">
         <v>123</v>
       </c>
       <c r="AA2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BD2" t="s">
         <v>124</v>
       </c>
       <c r="BE2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BF2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BJ2">
         <v>24</v>
       </c>
       <c r="BK2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BL2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BM2" s="1"/>
       <c r="BN2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP2" t="s">
         <v>212</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>213</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>214</v>
       </c>
       <c r="BQ2" s="2"/>
       <c r="BR2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BS2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BX2">
         <v>24</v>
       </c>
       <c r="BY2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BZ2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CA2">
         <v>24</v>
       </c>
       <c r="CB2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CC2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="DQ2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -2526,81 +2529,81 @@
         <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Z3" t="s">
         <v>123</v>
       </c>
       <c r="AA3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BD3" t="s">
         <v>124</v>
       </c>
       <c r="BE3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BF3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BJ3">
         <v>24</v>
       </c>
       <c r="BK3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BL3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BM3" s="1"/>
       <c r="BN3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP3" t="s">
         <v>212</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>213</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>214</v>
       </c>
       <c r="BQ3" s="2"/>
       <c r="BR3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BS3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BX3">
         <v>24</v>
       </c>
       <c r="BY3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BZ3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CA3">
         <v>24</v>
       </c>
       <c r="CB3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CC3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="DQ3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -2611,81 +2614,81 @@
         <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Z4" t="s">
         <v>123</v>
       </c>
       <c r="AA4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BD4" t="s">
         <v>124</v>
       </c>
       <c r="BE4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BF4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BJ4">
         <v>24</v>
       </c>
       <c r="BK4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BL4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BM4" s="1"/>
       <c r="BN4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP4" t="s">
         <v>212</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>213</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>214</v>
       </c>
       <c r="BQ4" s="2"/>
       <c r="BR4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BS4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BX4">
         <v>24</v>
       </c>
       <c r="BY4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BZ4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CA4">
         <v>24</v>
       </c>
       <c r="CB4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CC4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="DQ4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -2696,81 +2699,81 @@
         <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Z5" t="s">
         <v>123</v>
       </c>
       <c r="AA5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BD5" t="s">
         <v>124</v>
       </c>
       <c r="BE5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BF5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BJ5">
         <v>24</v>
       </c>
       <c r="BK5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BL5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BM5" s="1"/>
       <c r="BN5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP5" t="s">
         <v>212</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>213</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>214</v>
       </c>
       <c r="BQ5" s="2"/>
       <c r="BR5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BS5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT5" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BX5">
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BZ5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CA5">
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CC5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="DQ5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -2781,81 +2784,81 @@
         <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Z6" t="s">
         <v>123</v>
       </c>
       <c r="AA6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BD6" t="s">
         <v>124</v>
       </c>
       <c r="BE6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BF6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BJ6">
         <v>24</v>
       </c>
       <c r="BK6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BL6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BM6" s="1"/>
       <c r="BN6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP6" t="s">
         <v>212</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>213</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>214</v>
       </c>
       <c r="BQ6" s="2"/>
       <c r="BR6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BS6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BX6">
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BZ6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CA6">
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CC6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="DQ6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:121" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>121</v>
       </c>
@@ -2866,78 +2869,78 @@
         <v>122</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Z7" t="s">
         <v>123</v>
       </c>
       <c r="AA7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AB7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BD7" t="s">
         <v>124</v>
       </c>
       <c r="BE7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BF7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BJ7">
         <v>24</v>
       </c>
       <c r="BK7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BL7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BM7" s="1"/>
       <c r="BN7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP7" t="s">
         <v>212</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>213</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>214</v>
       </c>
       <c r="BQ7" s="2"/>
       <c r="BR7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BS7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BT7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="BX7">
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BZ7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CA7">
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="CC7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="DQ7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91A224-40CF-4CA8-BCC3-959AA541776F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F13DED-B4C0-4F47-A25D-A7B14D3C9930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_study" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>Study Person Roles Term Source REF</t>
   </si>
   <si>
-    <t>Source Name</t>
-  </si>
-  <si>
     <t>Characteristic [sample type]</t>
   </si>
   <si>
@@ -378,9 +375,6 @@
     <t>Characteristic [longitude]</t>
   </si>
   <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
     <t>preCulture</t>
   </si>
   <si>
@@ -679,6 +673,12 @@
   </si>
   <si>
     <t>CC3</t>
+  </si>
+  <si>
+    <t>Input [Source Name]</t>
+  </si>
+  <si>
+    <t>Output [Sample Name]</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1098,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3254BD5-CAF7-49F1-A8A2-9ADD6E25E135}" name="annotationTableRottenMouse21" displayName="annotationTableRottenMouse21" ref="A1:DQ7" totalsRowShown="0">
   <autoFilter ref="A1:DQ7" xr:uid="{E3254BD5-CAF7-49F1-A8A2-9ADD6E25E135}"/>
   <tableColumns count="121">
-    <tableColumn id="1" xr3:uid="{39272422-5228-40D3-80D3-5DBC9F02F5D9}" name="Source Name"/>
+    <tableColumn id="1" xr3:uid="{39272422-5228-40D3-80D3-5DBC9F02F5D9}" name="Input [Source Name]"/>
     <tableColumn id="3" xr3:uid="{03EDAE39-0598-4C08-ADA6-441928ACE2DF}" name="Characteristic [sample type]"/>
     <tableColumn id="4" xr3:uid="{82230313-784E-4E4D-81F6-7479A6E1F2D0}" name="Term Source REF (DPBO:0000064)" dataDxfId="117"/>
     <tableColumn id="5" xr3:uid="{7CFB15F5-7262-4305-9D61-C043F2D39A7C}" name="Term Accession Number (DPBO:0000064)" dataDxfId="116"/>
@@ -1218,16 +1218,16 @@
     <tableColumn id="119" xr3:uid="{21B0FD48-4D43-4829-BB48-94E6EE08F1A1}" name="Characteristic [longitude]" dataDxfId="2"/>
     <tableColumn id="120" xr3:uid="{2B16D1DE-A94B-4BDC-B4F3-E584C4ABFADB}" name="Term Source REF (SIO:000318)" dataDxfId="1"/>
     <tableColumn id="121" xr3:uid="{64B5043F-F28B-4FE9-B02A-002823F86BEC}" name="Term Accession Number (SIO:000318)" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{C9E94361-C15E-4837-B212-D185C4E1983D}" name="Sample Name"/>
+    <tableColumn id="2" xr3:uid="{C9E94361-C15E-4837-B212-D185C4E1983D}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1265,7 +1265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1371,7 +1371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1513,7 +1513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1543,14 +1543,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1582,12 +1582,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1595,97 +1595,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1773,87 +1773,87 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -1869,12 +1869,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>69</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -1898,7 +1898,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>73</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -1914,17 +1914,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -1939,1008 +1939,1008 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDAA727-F6C1-443E-B31C-E04844B181CE}">
   <dimension ref="A1:DQ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DE1" workbookViewId="0">
-      <selection activeCell="DQ4" sqref="DQ4"/>
+    <sheetView tabSelected="1" topLeftCell="CS1" workbookViewId="0">
+      <selection activeCell="DE14" sqref="DE14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="38.1796875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="27" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.26953125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="38.453125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.26953125" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="38.453125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.28515625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.42578125" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.26953125" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="38.453125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="31" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="38.1796875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.26953125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="38.453125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="31.28515625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="38.42578125" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="33" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="40" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="33" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="40" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="33" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="40" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="27.453125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="31.453125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="38.54296875" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="27.42578125" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="31.42578125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="33" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="40" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="33" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="40" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="32.26953125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.26953125" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.453125" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="32.7265625" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="39.7265625" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="43.26953125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="32.7265625" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="39.7265625" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.28515625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="37.42578125" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="33" hidden="1" customWidth="1"/>
     <col min="61" max="61" width="40" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="33" hidden="1" customWidth="1"/>
     <col min="64" max="64" width="40" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="7.1796875" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="32.7265625" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="39.7265625" hidden="1" customWidth="1"/>
-    <col min="69" max="69" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7.54296875" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="69" max="69" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="7.5703125" hidden="1" customWidth="1"/>
     <col min="71" max="71" width="33" hidden="1" customWidth="1"/>
     <col min="72" max="72" width="40" hidden="1" customWidth="1"/>
-    <col min="73" max="73" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="33" hidden="1" customWidth="1"/>
     <col min="75" max="75" width="40" hidden="1" customWidth="1"/>
-    <col min="76" max="76" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="33" hidden="1" customWidth="1"/>
     <col min="78" max="78" width="40" hidden="1" customWidth="1"/>
-    <col min="79" max="79" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="33" hidden="1" customWidth="1"/>
     <col min="81" max="81" width="40" hidden="1" customWidth="1"/>
-    <col min="82" max="82" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="32.7265625" hidden="1" customWidth="1"/>
-    <col min="84" max="84" width="39.7265625" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="32.7265625" hidden="1" customWidth="1"/>
-    <col min="87" max="87" width="39.7265625" hidden="1" customWidth="1"/>
-    <col min="88" max="88" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="32.7265625" hidden="1" customWidth="1"/>
-    <col min="90" max="90" width="39.7265625" hidden="1" customWidth="1"/>
-    <col min="91" max="91" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="32.7265625" hidden="1" customWidth="1"/>
-    <col min="93" max="93" width="39.7265625" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="93" max="93" width="39.7109375" hidden="1" customWidth="1"/>
     <col min="94" max="94" width="29" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="33" hidden="1" customWidth="1"/>
     <col min="96" max="96" width="40" hidden="1" customWidth="1"/>
-    <col min="97" max="97" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="36.1796875" hidden="1" customWidth="1"/>
-    <col min="99" max="99" width="43.1796875" hidden="1" customWidth="1"/>
-    <col min="100" max="100" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="36.1796875" hidden="1" customWidth="1"/>
-    <col min="102" max="102" width="43.1796875" hidden="1" customWidth="1"/>
-    <col min="103" max="103" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="20.81640625" hidden="1" customWidth="1"/>
+    <col min="97" max="97" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="99" max="99" width="43.140625" hidden="1" customWidth="1"/>
+    <col min="100" max="100" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="102" max="102" width="43.140625" hidden="1" customWidth="1"/>
+    <col min="103" max="103" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="20.85546875" hidden="1" customWidth="1"/>
     <col min="105" max="105" width="28" hidden="1" customWidth="1"/>
-    <col min="106" max="106" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="33" hidden="1" customWidth="1"/>
     <col min="108" max="108" width="40" hidden="1" customWidth="1"/>
-    <col min="109" max="109" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="43.140625" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="33" hidden="1" customWidth="1"/>
     <col min="111" max="111" width="40" hidden="1" customWidth="1"/>
-    <col min="112" max="112" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="33" hidden="1" customWidth="1"/>
     <col min="114" max="114" width="40" hidden="1" customWidth="1"/>
-    <col min="115" max="115" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="29.81640625" hidden="1" customWidth="1"/>
+    <col min="115" max="115" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="29.85546875" hidden="1" customWidth="1"/>
     <col min="117" max="117" width="37" hidden="1" customWidth="1"/>
-    <col min="118" max="118" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="29.81640625" hidden="1" customWidth="1"/>
+    <col min="118" max="118" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="29.85546875" hidden="1" customWidth="1"/>
     <col min="120" max="120" width="37" hidden="1" customWidth="1"/>
-    <col min="121" max="121" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>125</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>127</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>128</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>130</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>131</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>132</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>85</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>133</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>134</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>86</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>135</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>136</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>87</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>137</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>138</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>88</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>139</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>140</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>89</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
         <v>141</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>142</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>90</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>143</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>144</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>91</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
         <v>145</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AK1" t="s">
         <v>146</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AL1" t="s">
         <v>92</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AM1" t="s">
         <v>147</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>148</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AO1" t="s">
         <v>93</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AP1" t="s">
         <v>149</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AQ1" t="s">
         <v>150</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AR1" t="s">
         <v>94</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AS1" t="s">
         <v>151</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AT1" t="s">
         <v>152</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AU1" t="s">
         <v>95</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AV1" t="s">
         <v>153</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AW1" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AX1" t="s">
         <v>96</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AY1" t="s">
         <v>155</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AZ1" t="s">
         <v>156</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BA1" t="s">
         <v>97</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BB1" t="s">
         <v>157</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BC1" t="s">
         <v>158</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BD1" t="s">
         <v>98</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BE1" t="s">
         <v>159</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BF1" t="s">
         <v>160</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BG1" t="s">
         <v>99</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BH1" t="s">
         <v>161</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BI1" t="s">
         <v>162</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BJ1" t="s">
         <v>100</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BK1" t="s">
         <v>163</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BL1" t="s">
         <v>164</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BM1" t="s">
         <v>101</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BN1" t="s">
         <v>165</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BO1" t="s">
         <v>166</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BP1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>102</v>
       </c>
-      <c r="BN1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BO1" t="s">
+      <c r="BR1" t="s">
         <v>168</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BS1" t="s">
         <v>169</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BT1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BU1" t="s">
         <v>103</v>
       </c>
-      <c r="BR1" t="s">
-        <v>170</v>
-      </c>
-      <c r="BS1" t="s">
+      <c r="BV1" t="s">
         <v>171</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
         <v>172</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BX1" t="s">
         <v>104</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BY1" t="s">
         <v>173</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BZ1" t="s">
         <v>174</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CA1" t="s">
         <v>105</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CB1" t="s">
         <v>175</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CC1" t="s">
         <v>176</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CD1" t="s">
         <v>106</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CE1" t="s">
         <v>177</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CF1" t="s">
         <v>178</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CG1" t="s">
         <v>107</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CH1" t="s">
         <v>179</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CI1" t="s">
         <v>180</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CJ1" t="s">
         <v>108</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CK1" t="s">
         <v>181</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CL1" t="s">
         <v>182</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CM1" t="s">
         <v>109</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CN1" t="s">
         <v>183</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CO1" t="s">
         <v>184</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CP1" t="s">
         <v>110</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CQ1" t="s">
         <v>185</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CR1" t="s">
         <v>186</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CS1" t="s">
         <v>111</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CT1" t="s">
         <v>187</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CU1" t="s">
         <v>188</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CV1" t="s">
         <v>112</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CW1" t="s">
         <v>189</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CX1" t="s">
         <v>190</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CY1" t="s">
         <v>113</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CZ1" t="s">
         <v>191</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DA1" t="s">
         <v>192</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DB1" t="s">
         <v>114</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DC1" t="s">
         <v>193</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DD1" t="s">
         <v>194</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DE1" t="s">
         <v>115</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DF1" t="s">
         <v>195</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DG1" t="s">
         <v>196</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DH1" t="s">
         <v>116</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DI1" t="s">
         <v>197</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DJ1" t="s">
         <v>198</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DK1" t="s">
         <v>117</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DL1" t="s">
         <v>199</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DM1" t="s">
         <v>200</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DN1" t="s">
         <v>118</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DO1" t="s">
         <v>201</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DP1" t="s">
         <v>202</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DQ1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>119</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>203</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>204</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>121</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" t="s">
+        <v>203</v>
+      </c>
+      <c r="J2" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD2" t="s">
         <v>122</v>
       </c>
-      <c r="I2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>124</v>
-      </c>
       <c r="BE2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BF2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BJ2">
         <v>24</v>
       </c>
       <c r="BK2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM2" s="1"/>
       <c r="BN2" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP2" t="s">
         <v>210</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>212</v>
       </c>
       <c r="BQ2" s="2"/>
       <c r="BR2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BS2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BX2">
         <v>24</v>
       </c>
       <c r="BY2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BZ2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CA2">
         <v>24</v>
       </c>
       <c r="CB2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DQ2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.35">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" t="s">
+        <v>203</v>
+      </c>
+      <c r="J3" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD3" t="s">
         <v>122</v>
       </c>
-      <c r="I3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>124</v>
-      </c>
       <c r="BE3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BF3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BJ3">
         <v>24</v>
       </c>
       <c r="BK3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM3" s="1"/>
       <c r="BN3" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP3" t="s">
         <v>210</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>212</v>
       </c>
       <c r="BQ3" s="2"/>
       <c r="BR3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BS3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BX3">
         <v>24</v>
       </c>
       <c r="BY3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BZ3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CA3">
         <v>24</v>
       </c>
       <c r="CB3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DQ3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.35">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" t="s">
+        <v>203</v>
+      </c>
+      <c r="J4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD4" t="s">
         <v>122</v>
       </c>
-      <c r="I4" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>124</v>
-      </c>
       <c r="BE4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BF4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BJ4">
         <v>24</v>
       </c>
       <c r="BK4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM4" s="1"/>
       <c r="BN4" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP4" t="s">
         <v>210</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>212</v>
       </c>
       <c r="BQ4" s="2"/>
       <c r="BR4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BS4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BX4">
         <v>24</v>
       </c>
       <c r="BY4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BZ4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CA4">
         <v>24</v>
       </c>
       <c r="CB4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DQ4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.35">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD5" t="s">
         <v>122</v>
       </c>
-      <c r="I5" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>124</v>
-      </c>
       <c r="BE5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BF5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BJ5">
         <v>24</v>
       </c>
       <c r="BK5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM5" s="1"/>
       <c r="BN5" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP5" t="s">
         <v>210</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>212</v>
       </c>
       <c r="BQ5" s="2"/>
       <c r="BR5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BS5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT5" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BX5">
         <v>0</v>
       </c>
       <c r="BY5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BZ5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CA5">
         <v>0</v>
       </c>
       <c r="CB5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DQ5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.35">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="H6" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" t="s">
+        <v>203</v>
+      </c>
+      <c r="J6" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD6" t="s">
         <v>122</v>
       </c>
-      <c r="I6" t="s">
-        <v>205</v>
-      </c>
-      <c r="J6" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>124</v>
-      </c>
       <c r="BE6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BF6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BJ6">
         <v>24</v>
       </c>
       <c r="BK6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM6" s="1"/>
       <c r="BN6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP6" t="s">
         <v>210</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP6" t="s">
-        <v>212</v>
       </c>
       <c r="BQ6" s="2"/>
       <c r="BR6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BS6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BX6">
         <v>0</v>
       </c>
       <c r="BY6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BZ6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CA6">
         <v>0</v>
       </c>
       <c r="CB6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DQ6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.35">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="H7" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>206</v>
+      </c>
+      <c r="BD7" t="s">
         <v>122</v>
       </c>
-      <c r="I7" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>208</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>124</v>
-      </c>
       <c r="BE7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BF7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BJ7">
         <v>24</v>
       </c>
       <c r="BK7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BL7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BM7" s="1"/>
       <c r="BN7" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>209</v>
+      </c>
+      <c r="BP7" t="s">
         <v>210</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>212</v>
       </c>
       <c r="BQ7" s="2"/>
       <c r="BR7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BS7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BT7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BX7">
         <v>0</v>
       </c>
       <c r="BY7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BZ7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CA7">
         <v>0</v>
       </c>
       <c r="CB7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="CC7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="DQ7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B910B8E0-A8E7-49E7-B4BC-EB4BB7A5DD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE108B24-AB63-4C10-ACB2-8BA30AD3B9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="0" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_study" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t>STUDY</t>
   </si>
@@ -295,9 +295,6 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_3055</t>
-  </si>
-  <si>
-    <t>user-specific</t>
   </si>
   <si>
     <t>Co1</t>
@@ -1137,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDAA727-F6C1-443E-B31C-E04844B181CE}">
-  <dimension ref="A1:DP7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B1" t="s">
         <v>80</v>
@@ -1190,7 +1187,7 @@
         <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -1212,14 +1209,8 @@
       <c r="H2">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
       <c r="K2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1241,14 +1232,8 @@
       <c r="H3">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J3" t="s">
-        <v>93</v>
-      </c>
       <c r="K3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
@@ -1270,14 +1255,8 @@
       <c r="H4">
         <v>24</v>
       </c>
-      <c r="I4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J4" t="s">
-        <v>93</v>
-      </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1299,14 +1278,8 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>93</v>
-      </c>
-      <c r="J5" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1328,14 +1301,8 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J6" t="s">
-        <v>93</v>
-      </c>
       <c r="K6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1357,14 +1324,8 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" t="s">
-        <v>93</v>
-      </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE108B24-AB63-4C10-ACB2-8BA30AD3B9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="6000" yWindow="0" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_study" sheetId="1" r:id="rId1"/>
-    <sheet name="Growth" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_study" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Growth" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="108">
   <si>
     <t>STUDY</t>
   </si>
@@ -162,6 +158,9 @@
     <t>Study Protocol Name</t>
   </si>
   <si>
+    <t>Growth</t>
+  </si>
+  <si>
     <t>Study Protocol Type</t>
   </si>
   <si>
@@ -258,80 +257,98 @@
     <t>Study Person Roles Term Source REF</t>
   </si>
   <si>
+    <t>Input [Source Name]</t>
+  </si>
+  <si>
     <t>Characteristic [biological replicate]</t>
   </si>
   <si>
+    <t>Term Source REF (DPBO:0000042)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000042)</t>
+  </si>
+  <si>
     <t>Characteristic [organism]</t>
   </si>
   <si>
+    <t>Term Source REF (OBI:0100026)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (OBI:0100026)</t>
+  </si>
+  <si>
     <t>Characteristic [temperature day]</t>
   </si>
   <si>
+    <t>Term Source REF (DPBO:0000007)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000007)</t>
+  </si>
+  <si>
+    <t>Output [Sample Name]</t>
+  </si>
+  <si>
     <t>preCulture</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Chlamydomonas reinhardtii</t>
   </si>
   <si>
-    <t>Term Source REF (DPBO:0000042)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000042)</t>
-  </si>
-  <si>
-    <t>Term Source REF (OBI:0100026)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (OBI:0100026)</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0000007)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0000007)</t>
-  </si>
-  <si>
     <t>NCBITaxon</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCBITaxon_3055</t>
   </si>
   <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>CC1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CC2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>CC3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Co1</t>
   </si>
   <si>
+    <t>Co2</t>
+  </si>
+  <si>
     <t>Co3</t>
-  </si>
-  <si>
-    <t>Co2</t>
-  </si>
-  <si>
-    <t>CC1</t>
-  </si>
-  <si>
-    <t>CC2</t>
-  </si>
-  <si>
-    <t>CC3</t>
-  </si>
-  <si>
-    <t>Input [Source Name]</t>
-  </si>
-  <si>
-    <t>Output [Sample Name]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,35 +377,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -402,29 +391,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3254BD5-CAF7-49F1-A8A2-9ADD6E25E135}" name="annotationTableRottenMouse21" displayName="annotationTableRottenMouse21" ref="A1:K7" totalsRowShown="0">
-  <autoFilter ref="A1:K7" xr:uid="{E3254BD5-CAF7-49F1-A8A2-9ADD6E25E135}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:K7" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:K7">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{39272422-5228-40D3-80D3-5DBC9F02F5D9}" name="Input [Source Name]"/>
-    <tableColumn id="6" xr3:uid="{27A0BD2E-C65B-482E-811E-4A6A42AE9C05}" name="Characteristic [biological replicate]" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{C578DF5B-8FDA-4FB8-8C17-D21E970ECFF7}" name="Term Source REF (DPBO:0000042)" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{91E5F286-A1FE-4A19-AD58-BB395431CCE5}" name="Term Accession Number (DPBO:0000042)" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{45C04D6D-2BEE-4BF3-8636-1C1F1BBF71C4}" name="Characteristic [organism]" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{659B7A17-AB5E-4E28-BEBC-0829CB090017}" name="Term Source REF (OBI:0100026)" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{7D9718A7-5838-403D-B3CF-554038491875}" name="Term Accession Number (OBI:0100026)" dataDxfId="3"/>
-    <tableColumn id="77" xr3:uid="{1BA5939B-FACB-4479-8F4A-AB819ABECC3A}" name="Characteristic [temperature day]" dataDxfId="2"/>
-    <tableColumn id="78" xr3:uid="{3C5157E6-A539-427D-ABFB-71CB04E885A6}" name="Term Source REF (DPBO:0000007)" dataDxfId="1"/>
-    <tableColumn id="79" xr3:uid="{514C694D-78FD-420E-B994-2799CC0B55DE}" name="Term Accession Number (DPBO:0000007)" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{C9E94361-C15E-4837-B212-D185C4E1983D}" name="Output [Sample Name]"/>
+    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Characteristic [biological replicate]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (DPBO:0000042)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (DPBO:0000042)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Characteristic [organism]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Characteristic [temperature day]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (DPBO:0000007)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (DPBO:0000007)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Output [Sample Name]" totalsRowFunction="none"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -462,7 +463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -568,7 +569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -710,44 +711,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
-</file>
-
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B3DA2AD3-2877-4CD1-A41E-5E18679C0997}">
-  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad83" version="0.8.0.0" store="\\DESKTOP-GGDHOH8\nfdi_manifest_User" storeType="Filesystem"/>
-  <we:alternateReferences/>
-  <we:properties/>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</we:webextension>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -755,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -763,7 +743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -771,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -779,12 +759,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -792,97 +772,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -893,7 +873,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -904,7 +884,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -915,7 +895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -926,7 +906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>37</v>
       </c>
@@ -937,7 +917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -948,7 +928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -956,7 +936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -970,215 +950,200 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FDAA727-F6C1-443E-B31C-E04844B181CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
-    <col min="5" max="5" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" customWidth="1"/>
-    <col min="8" max="8" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="40" customWidth="1"/>
-    <col min="11" max="11" width="15.7265625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>88</v>
-      </c>
-      <c r="H1" t="s">
-        <v>82</v>
       </c>
       <c r="I1" t="s">
         <v>89</v>
@@ -1187,149 +1152,222 @@
         <v>90</v>
       </c>
       <c r="K1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>92</v>
       </c>
-      <c r="H2">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>92</v>
       </c>
-      <c r="H3">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>92</v>
       </c>
-      <c r="H4">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>92</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="H7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/studies/ChlamydomonasColdTimeCourse/isa.study.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A65DA43-737E-48EA-80C2-5576C5DE399B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_study" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Growth" state="visible" r:id="rId5"/>
+    <sheet name="isa_study" sheetId="1" r:id="rId1"/>
+    <sheet name="Growth_Cold" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -341,14 +345,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,7 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -391,8 +395,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:K7" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:K7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:K7">
+  <autoFilter ref="A1:K7" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -406,17 +410,17 @@
     <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="11">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Characteristic [biological replicate]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:0000042)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:0000042)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Characteristic [organism]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (OBI:0100026)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (OBI:0100026)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Characteristic [temperature day]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:0000007)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:0000007)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Output [Sample Name]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Characteristic [biological replicate]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (DPBO:0000042)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (DPBO:0000042)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Characteristic [organism]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (OBI:0100026)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (OBI:0100026)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Characteristic [temperature day]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (DPBO:0000007)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (DPBO:0000007)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Output [Sample Name]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -718,11 +722,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D60"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -759,7 +766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -772,92 +779,92 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -928,7 +935,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -950,12 +957,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -963,72 +970,72 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -1049,7 +1056,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -1094,31 +1101,36 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K7"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43:H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1367,7 +1379,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
